--- a/templates/mutual-funds-instrument-upload-template.xlsx
+++ b/templates/mutual-funds-instrument-upload-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onevmw-my.sharepoint.com/personal/shubhabratar_vmware_com/Documents/Rony's Files/Scaler MS Computer Science/Backend Project/Projects/MyStockPlanningApp/data-upload/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnissa-my.sharepoint.com/personal/shubhabratar_omnissa_com/Documents/Rony's Files/Scaler MS Computer Science/Backend Project/Projects/MyStockPlanningApp/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{6BA941F5-210D-449C-9932-21812379AEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B286C6-3888-46BB-A6F1-FC153363D457}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{6BA941F5-210D-449C-9932-21812379AEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD2206AD-DD19-40F0-A6FF-D2BB71C6A369}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5BCC6984-DD14-4872-863F-FC271DF83AEC}"/>
   </bookViews>
@@ -44,13 +44,13 @@
     <t>sub_category_name</t>
   </si>
   <si>
-    <t>stock_instrument_name</t>
-  </si>
-  <si>
     <t>plan_type</t>
   </si>
   <si>
     <t>folio_number</t>
+  </si>
+  <si>
+    <t>mutual_fund_instrument_name</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,13 +426,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
